--- a/bin/sheets/main_db/teams/SCO/PlayerPerformance_3707.xlsx
+++ b/bin/sheets/main_db/teams/SCO/PlayerPerformance_3707.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3707</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Alasdair C Evans</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>07/07/2009</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2979</t>
+          <t>2979</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -540,7 +604,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>08/07/2009</t>
@@ -548,7 +611,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2980</t>
+          <t>2980</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -588,7 +651,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>12/07/2012</t>
@@ -596,7 +658,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3428</t>
+          <t>3428</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -648,7 +710,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3637</t>
+          <t>3637</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -700,7 +762,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3675</t>
+          <t>3675</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -740,7 +802,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>12/09/2014</t>
@@ -748,7 +809,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3676</t>
+          <t>3676</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -800,7 +861,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3725</t>
+          <t>3725</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -840,7 +901,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>19/01/2015</t>
@@ -848,7 +908,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3733</t>
+          <t>3733</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -900,7 +960,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3761</t>
+          <t>3761</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -952,7 +1012,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3764</t>
+          <t>3764</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1004,7 +1064,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3774</t>
+          <t>3774</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1056,7 +1116,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3782</t>
+          <t>3782</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1108,7 +1168,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3880</t>
+          <t>3880</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1148,7 +1208,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>04/07/2016</t>
@@ -1156,7 +1215,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3912</t>
+          <t>3912</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1208,7 +1267,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3913</t>
+          <t>3913</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1248,7 +1307,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>14/08/2016</t>
@@ -1256,7 +1314,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3919</t>
+          <t>3919</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1296,7 +1354,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>16/08/2016</t>
@@ -1304,7 +1361,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3920</t>
+          <t>3920</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1344,7 +1401,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>08/09/2016</t>
@@ -1352,7 +1408,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3933</t>
+          <t>3933</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1392,7 +1448,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>10/09/2016</t>
@@ -1400,7 +1455,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3934</t>
+          <t>3934</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1440,7 +1495,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>15/06/2017</t>
@@ -1448,7 +1502,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4048</t>
+          <t>4048</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1500,7 +1554,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4049</t>
+          <t>4049</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1552,7 +1606,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4077</t>
+          <t>4077</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1604,7 +1658,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4078</t>
+          <t>4078</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1644,7 +1698,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>24/11/2017</t>
@@ -1652,7 +1705,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4090</t>
+          <t>4090</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1692,7 +1745,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>25/11/2017</t>
@@ -1700,7 +1752,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4091</t>
+          <t>4091</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1752,7 +1804,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4111</t>
+          <t>4111</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1804,7 +1856,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4113</t>
+          <t>4113</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1856,7 +1908,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4118</t>
+          <t>4118</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1896,7 +1948,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>06/03/2018</t>
@@ -1904,7 +1955,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4142</t>
+          <t>4142</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1944,7 +1995,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>21/03/2018</t>
@@ -1952,7 +2002,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4161</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1992,7 +2042,6 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>10/06/2018</t>
@@ -2000,7 +2049,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4165</t>
+          <t>4165</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2040,7 +2089,6 @@
           <t>32</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>10/05/2019</t>
@@ -2048,7 +2096,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4290</t>
+          <t>4290</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2100,7 +2148,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4302</t>
+          <t>4302</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2152,7 +2200,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4363</t>
+          <t>4363</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2204,7 +2252,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4381</t>
+          <t>4381</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2244,7 +2292,6 @@
           <t>36</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>14/12/2019</t>
@@ -2252,7 +2299,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4384</t>
+          <t>4384</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2292,7 +2339,6 @@
           <t>37</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>19/05/2021</t>
@@ -2300,7 +2346,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4461</t>
+          <t>4461</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2340,7 +2386,6 @@
           <t>38</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>20/05/2021</t>
@@ -2348,7 +2393,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4462</t>
+          <t>4462</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2388,7 +2433,6 @@
           <t>39</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>25/09/2021</t>
@@ -2396,7 +2440,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4510</t>
+          <t>4510</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2436,7 +2480,6 @@
           <t>40</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>29/09/2021</t>
@@ -2444,7 +2487,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4513</t>
+          <t>4513</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2484,7 +2527,6 @@
           <t>41</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>02/10/2021</t>
@@ -2492,7 +2534,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4515</t>
+          <t>4515</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2531,7 +2573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2553,7 +2595,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -2590,7 +2632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2979</t>
+          <t>2979</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2627,7 +2669,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2980</t>
+          <t>2980</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2664,7 +2706,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3428</t>
+          <t>3428</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2701,7 +2743,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3637</t>
+          <t>3637</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2738,7 +2780,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3675</t>
+          <t>3675</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2775,7 +2817,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3676</t>
+          <t>3676</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2812,7 +2854,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3725</t>
+          <t>3725</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2849,7 +2891,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3761</t>
+          <t>3761</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2886,7 +2928,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3764</t>
+          <t>3764</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2923,7 +2965,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3774</t>
+          <t>3774</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2960,7 +3002,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3782</t>
+          <t>3782</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2997,7 +3039,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3880</t>
+          <t>3880</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -3034,7 +3076,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3912</t>
+          <t>3912</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3071,7 +3113,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3913</t>
+          <t>3913</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3108,7 +3150,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3919</t>
+          <t>3919</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3145,7 +3187,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3920</t>
+          <t>3920</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3182,7 +3224,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3933</t>
+          <t>3933</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3219,7 +3261,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3934</t>
+          <t>3934</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3256,7 +3298,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4048</t>
+          <t>4048</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3293,7 +3335,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4049</t>
+          <t>4049</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3330,7 +3372,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4077</t>
+          <t>4077</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3367,7 +3409,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4078</t>
+          <t>4078</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3404,7 +3446,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4090</t>
+          <t>4090</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3441,7 +3483,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4091</t>
+          <t>4091</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3478,7 +3520,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4111</t>
+          <t>4111</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3515,7 +3557,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4113</t>
+          <t>4113</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3552,7 +3594,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4118</t>
+          <t>4118</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3589,7 +3631,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4142</t>
+          <t>4142</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3626,7 +3668,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4161</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3663,7 +3705,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4165</t>
+          <t>4165</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3700,7 +3742,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4290</t>
+          <t>4290</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3737,7 +3779,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4302</t>
+          <t>4302</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3774,7 +3816,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4363</t>
+          <t>4363</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3811,7 +3853,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4381</t>
+          <t>4381</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3848,7 +3890,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4384</t>
+          <t>4384</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -3885,7 +3927,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4461</t>
+          <t>4461</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -3922,7 +3964,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4462</t>
+          <t>4462</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3959,7 +4001,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4510</t>
+          <t>4510</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -3996,7 +4038,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4513</t>
+          <t>4513</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4022,6 +4064,435 @@
       <c r="G40" t="inlineStr">
         <is>
           <t>3/42</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4077</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4078</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4090</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4091</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4111</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4113</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>4.23%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4118</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4142</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4161</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4165</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4290</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4302</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4363</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2.38%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4381</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4384</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4461</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4462</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4510</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4513</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4515</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/SCO/PlayerPerformance_3707.xlsx
+++ b/bin/sheets/main_db/teams/SCO/PlayerPerformance_3707.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4137,7 +4138,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4163,7 +4163,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4176,10 +4175,6 @@
           <t>4090</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4192,309 +4187,530 @@
           <t>4091</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4111</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4113</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>4.23%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4118</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4142</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4161</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4165</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4290</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4302</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4363</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2.38%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4381</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4384</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4461</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4462</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4510</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4513</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4515</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4049</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4077</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4078</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4090</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4111</t>
+          <t>4091</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4113</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4.23%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4111</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4118</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4113</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4142</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>10</v>
-      </c>
+          <t>4118</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4161</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>10</v>
-      </c>
+          <t>4142</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4165</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4161</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4290</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4165</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4302</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4290</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4363</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>10</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2.38%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4302</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4381</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
+          <t>4363</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4384</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>10</v>
-      </c>
+          <t>4381</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4461</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4384</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4462</t>
+          <t>4461</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4510</t>
+          <t>4462</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4513</t>
+          <t>4510</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4515</t>
+          <t>4513</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/SCO/PlayerPerformance_3707.xlsx
+++ b/bin/sheets/main_db/teams/SCO/PlayerPerformance_3707.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -558,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>07/07/2009</t>
@@ -605,6 +604,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>08/07/2009</t>
@@ -652,6 +652,7 @@
           <t>3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>12/07/2012</t>
@@ -803,6 +804,7 @@
           <t>6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>12/09/2014</t>
@@ -902,6 +904,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>19/01/2015</t>
@@ -1209,6 +1212,7 @@
           <t>14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>04/07/2016</t>
@@ -1221,7 +1225,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1308,6 +1312,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>14/08/2016</t>
@@ -1355,6 +1360,7 @@
           <t>17</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>16/08/2016</t>
@@ -1402,6 +1408,7 @@
           <t>18</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>08/09/2016</t>
@@ -1449,6 +1456,7 @@
           <t>19</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>10/09/2016</t>
@@ -1496,6 +1504,7 @@
           <t>20</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>15/06/2017</t>
@@ -1699,6 +1708,7 @@
           <t>24</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>24/11/2017</t>
@@ -1746,6 +1756,7 @@
           <t>25</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>25/11/2017</t>
@@ -1949,6 +1960,7 @@
           <t>29</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>06/03/2018</t>
@@ -1996,6 +2008,7 @@
           <t>30</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>21/03/2018</t>
@@ -2043,6 +2056,7 @@
           <t>31</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>10/06/2018</t>
@@ -2090,6 +2104,7 @@
           <t>32</t>
         </is>
       </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>10/05/2019</t>
@@ -2293,6 +2308,7 @@
           <t>36</t>
         </is>
       </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>14/12/2019</t>
@@ -2340,6 +2356,7 @@
           <t>37</t>
         </is>
       </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>19/05/2021</t>
@@ -2387,6 +2404,7 @@
           <t>38</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>20/05/2021</t>
@@ -2434,6 +2452,7 @@
           <t>39</t>
         </is>
       </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>25/09/2021</t>
@@ -2481,6 +2500,7 @@
           <t>40</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>29/09/2021</t>
@@ -2528,6 +2548,7 @@
           <t>41</t>
         </is>
       </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>02/10/2021</t>
@@ -4071,648 +4092,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4077</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4078</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>11</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4090</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4091</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4111</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4113</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4.23%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4118</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4142</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>10</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4161</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>10</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4165</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4290</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4302</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4363</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>10</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2.38%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4381</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4384</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>10</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4461</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4462</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4510</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4513</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4515</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4049</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4077</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4078</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4090</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4091</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4111</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4113</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4118</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4142</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4161</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4165</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4290</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4302</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4363</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4381</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4384</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4461</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4462</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4510</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4513</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>